--- a/Documentatie/Analyse/Hardware analyse/V2/BOM.xlsx
+++ b/Documentatie/Analyse/Hardware analyse/V2/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXB050\Desktop\Bachelorproef\Documentatie\Analyse\Hardware analyse\V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9B22D8-7D2C-4475-9807-C3078B851089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AB7AEB-5F02-4BCB-8E13-3DBB281CFA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>Bill Of Materials - Stageopdracht Jelte Boumans</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Male USB C</t>
   </si>
   <si>
-    <t>USB4155-03-C</t>
-  </si>
-  <si>
     <t>Display</t>
   </si>
   <si>
@@ -125,21 +122,12 @@
     <t>SMD 4k7Ω 0603</t>
   </si>
   <si>
-    <t>SMD 1kΩ 0603</t>
-  </si>
-  <si>
     <t>SMD 150Ω 0603</t>
   </si>
   <si>
-    <t>SMD 120Ω 0603</t>
-  </si>
-  <si>
     <t>SMD 10kΩ 0603</t>
   </si>
   <si>
-    <t>SMD 390kΩ 0603</t>
-  </si>
-  <si>
     <t>SMD 5k1Ω 0603</t>
   </si>
   <si>
@@ -167,9 +155,6 @@
     <t>Farnell</t>
   </si>
   <si>
-    <t>1735528</t>
-  </si>
-  <si>
     <t>1296592</t>
   </si>
   <si>
@@ -189,6 +174,66 @@
   </si>
   <si>
     <t>TCA9517DR</t>
+  </si>
+  <si>
+    <t>3796319</t>
+  </si>
+  <si>
+    <t>3796316</t>
+  </si>
+  <si>
+    <t>1605484</t>
+  </si>
+  <si>
+    <t>2447255</t>
+  </si>
+  <si>
+    <t>2073509</t>
+  </si>
+  <si>
+    <t>2074167</t>
+  </si>
+  <si>
+    <t>2447404</t>
+  </si>
+  <si>
+    <t>1867954</t>
+  </si>
+  <si>
+    <t>2210922</t>
+  </si>
+  <si>
+    <t>2310603</t>
+  </si>
+  <si>
+    <t>1907288</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>262-BME680</t>
+  </si>
+  <si>
+    <t>790-EAW096016-XALW</t>
+  </si>
+  <si>
+    <t>798-CX60-24S-UNIT</t>
+  </si>
+  <si>
+    <t>CX60-24S-UNIT</t>
+  </si>
+  <si>
+    <t>SMD 22Ω 0603</t>
+  </si>
+  <si>
+    <t>SMD 910kΩ 0603</t>
+  </si>
+  <si>
+    <t>2074318</t>
+  </si>
+  <si>
+    <t>2447301</t>
   </si>
 </sst>
 </file>
@@ -836,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,22 +956,24 @@
         <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12">
+        <v>5.18</v>
+      </c>
       <c r="I4" s="13">
         <f>C4*H4</f>
-        <v>0</v>
+        <v>5.18</v>
       </c>
       <c r="J4" s="33">
         <f>SUM(I4:I23)</f>
-        <v>0</v>
+        <v>34.153100000000002</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -943,13 +990,17 @@
         <v>12</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="21">
+        <v>10.31</v>
+      </c>
       <c r="I5" s="22">
         <f>C5*H5</f>
-        <v>0</v>
+        <v>10.31</v>
       </c>
       <c r="J5" s="34"/>
     </row>
@@ -961,21 +1012,23 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.49299999999999999</v>
+      </c>
       <c r="I6" s="7">
         <f>C6*H6</f>
-        <v>0</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="J6" s="34"/>
     </row>
@@ -993,15 +1046,17 @@
         <v>14</v>
       </c>
       <c r="F7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="21">
+        <v>1.1399999999999999</v>
+      </c>
       <c r="I7" s="22">
-        <f t="shared" ref="I7:I23" si="0">C7*H7</f>
-        <v>0</v>
+        <f t="shared" ref="I7:I8" si="0">C7*H7</f>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J7" s="34"/>
     </row>
@@ -1019,15 +1074,17 @@
         <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.5</v>
+      </c>
       <c r="I8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J8" s="34"/>
     </row>
@@ -1042,16 +1099,20 @@
         <v>17</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="21">
+        <v>2</v>
+      </c>
       <c r="I9" s="22">
         <f>C9*H9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="34"/>
     </row>
@@ -1063,19 +1124,23 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="6">
+        <v>12.35</v>
+      </c>
       <c r="I10" s="7">
         <f>C10*H10</f>
-        <v>0</v>
+        <v>12.35</v>
       </c>
       <c r="J10" s="34"/>
     </row>
@@ -1087,21 +1152,23 @@
         <v>1</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="H11" s="21">
+        <v>1.2</v>
+      </c>
       <c r="I11" s="22">
         <f>C11*H11</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J11" s="34"/>
     </row>
@@ -1124,19 +1191,23 @@
         <v>1</v>
       </c>
       <c r="D13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>23</v>
-      </c>
       <c r="F13" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="21">
+        <v>8.1299999999999997E-2</v>
+      </c>
       <c r="I13" s="22">
         <f>C13*H13</f>
-        <v>0</v>
+        <v>8.1299999999999997E-2</v>
       </c>
       <c r="J13" s="34"/>
     </row>
@@ -1148,19 +1219,23 @@
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="29"/>
+        <v>38</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="6">
+        <v>8.1299999999999997E-2</v>
+      </c>
       <c r="I14" s="7">
         <f>C14*H14</f>
-        <v>0</v>
+        <v>0.16259999999999999</v>
       </c>
       <c r="J14" s="34"/>
     </row>
@@ -1172,19 +1247,23 @@
         <v>1</v>
       </c>
       <c r="D15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>26</v>
-      </c>
       <c r="F15" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0.60299999999999998</v>
+      </c>
       <c r="I15" s="22">
         <f>C15*H15</f>
-        <v>0</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="J15" s="34"/>
     </row>
@@ -1207,273 +1286,298 @@
         <v>5</v>
       </c>
       <c r="D17" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>28</v>
-      </c>
       <c r="F17" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="21">
+        <v>1.1599999999999999E-2</v>
+      </c>
       <c r="I17" s="22">
         <f>C17*H17</f>
-        <v>0</v>
+        <v>5.7999999999999996E-2</v>
       </c>
       <c r="J17" s="34"/>
     </row>
     <row r="18" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="6">
+        <v>5.1000000000000004E-3</v>
+      </c>
       <c r="I18" s="7">
         <f>C18*H18</f>
-        <v>0</v>
+        <v>1.5300000000000001E-2</v>
       </c>
       <c r="J18" s="34"/>
     </row>
     <row r="19" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="21">
+        <v>1.34E-2</v>
+      </c>
       <c r="I19" s="22">
         <f>C19*H19</f>
-        <v>0</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="J19" s="34"/>
     </row>
     <row r="20" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="6">
+        <v>9.7999999999999997E-3</v>
+      </c>
       <c r="I20" s="7">
         <f>C20*H20</f>
-        <v>0</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="J20" s="34"/>
     </row>
     <row r="21" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="19">
         <v>1</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="21">
+        <v>1.29E-2</v>
+      </c>
       <c r="I21" s="22">
         <f>C21*H21</f>
-        <v>0</v>
+        <v>1.29E-2</v>
       </c>
       <c r="J21" s="34"/>
     </row>
     <row r="22" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="6">
+        <v>5.1999999999999998E-3</v>
+      </c>
       <c r="I22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C22*H22</f>
+        <v>1.04E-2</v>
       </c>
       <c r="J22" s="34"/>
     </row>
     <row r="23" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="18">
-        <v>18</v>
-      </c>
-      <c r="C23" s="19">
-        <v>2</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I23" s="22"/>
       <c r="J23" s="34"/>
     </row>
     <row r="24" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="13"/>
+      <c r="B24" s="9">
+        <v>19</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="29">
+        <v>6.6E-3</v>
+      </c>
+      <c r="I24" s="13">
+        <f>C24*H24</f>
+        <v>1.32E-2</v>
+      </c>
       <c r="J24" s="34"/>
     </row>
     <row r="25" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="21">
+        <v>9.4899999999999998E-2</v>
+      </c>
       <c r="I25" s="22">
         <f>C25*H25</f>
-        <v>0</v>
+        <v>0.6643</v>
       </c>
       <c r="J25" s="34"/>
     </row>
     <row r="26" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="22">
-        <f t="shared" ref="I26:I28" si="1">C26*H26</f>
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="6">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" ref="I26:I27" si="1">C26*H26</f>
+        <v>8.8400000000000006E-2</v>
       </c>
       <c r="J26" s="34"/>
     </row>
     <row r="27" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="20" t="s">
-        <v>38</v>
-      </c>
       <c r="F27" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="21">
+        <v>0.33800000000000002</v>
+      </c>
       <c r="I27" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.3520000000000001</v>
       </c>
       <c r="J27" s="34"/>
     </row>
     <row r="28" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
-        <v>22</v>
-      </c>
-      <c r="C28" s="4">
-        <v>2</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="I28" s="7"/>
       <c r="J28" s="34"/>
     </row>
     <row r="29" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1540,7 +1644,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G28" numberStoredAsText="1"/>
+    <ignoredError sqref="G4 G16:G17 G13:G15 G11:G12 G6:G8 G24 G18:G19 G25:G27 G22:G23 G20:G21" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Documentatie/Analyse/Hardware analyse/V2/BOM.xlsx
+++ b/Documentatie/Analyse/Hardware analyse/V2/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXB050\Desktop\Bachelorproef\Documentatie\Analyse\Hardware analyse\V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelte\Desktop\Bachelorproef\Documentatie\Analyse\Hardware analyse\V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AB7AEB-5F02-4BCB-8E13-3DBB281CFA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C9832-4F5D-4328-8487-218FD2853C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>SMD 4k7Ω 0603</t>
   </si>
   <si>
-    <t>SMD 150Ω 0603</t>
-  </si>
-  <si>
     <t>SMD 10kΩ 0603</t>
   </si>
   <si>
@@ -176,18 +173,6 @@
     <t>TCA9517DR</t>
   </si>
   <si>
-    <t>3796319</t>
-  </si>
-  <si>
-    <t>3796316</t>
-  </si>
-  <si>
-    <t>1605484</t>
-  </si>
-  <si>
-    <t>2447255</t>
-  </si>
-  <si>
     <t>2073509</t>
   </si>
   <si>
@@ -234,6 +219,21 @@
   </si>
   <si>
     <t>2447301</t>
+  </si>
+  <si>
+    <t>2610406</t>
+  </si>
+  <si>
+    <t>2610409</t>
+  </si>
+  <si>
+    <t>SMD 1k5Ω 0603</t>
+  </si>
+  <si>
+    <t>1717575</t>
+  </si>
+  <si>
+    <t>611-PTS636SK50SMTRLF</t>
   </si>
 </sst>
 </file>
@@ -587,9 +587,9 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -882,28 +882,28 @@
   <dimension ref="B1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="3" width="5.5546875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="22.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="3" width="5.5703125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="22.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="I2" s="31"/>
       <c r="J2" s="32"/>
     </row>
-    <row r="3" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -945,7 +945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -956,13 +956,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="12">
         <v>5.18</v>
@@ -973,10 +973,10 @@
       </c>
       <c r="J4" s="33">
         <f>SUM(I4:I23)</f>
-        <v>34.153100000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36.506900000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="18">
         <v>2</v>
       </c>
@@ -990,10 +990,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5" s="21">
         <v>10.31</v>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="J5" s="34"/>
     </row>
-    <row r="6" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
         <v>3</v>
       </c>
@@ -1012,16 +1012,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="H6" s="6">
         <v>0.49299999999999999</v>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="J6" s="34"/>
     </row>
-    <row r="7" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18">
         <v>4</v>
       </c>
@@ -1046,10 +1046,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="21">
         <v>1.1399999999999999</v>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="J7" s="34"/>
     </row>
-    <row r="8" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
         <v>5</v>
       </c>
@@ -1074,10 +1074,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="6">
         <v>0.5</v>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="J8" s="34"/>
     </row>
-    <row r="9" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18">
         <v>6</v>
       </c>
@@ -1099,13 +1099,13 @@
         <v>17</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H9" s="21">
         <v>2</v>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="J9" s="34"/>
     </row>
-    <row r="10" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
         <v>7</v>
       </c>
@@ -1130,10 +1130,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H10" s="6">
         <v>12.35</v>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="J10" s="34"/>
     </row>
-    <row r="11" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="18">
         <v>8</v>
       </c>
@@ -1155,13 +1155,13 @@
         <v>20</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="21">
         <v>1.2</v>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="J11" s="34"/>
     </row>
-    <row r="12" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
@@ -1183,7 +1183,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="34"/>
     </row>
-    <row r="13" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="18">
         <v>9</v>
       </c>
@@ -1197,21 +1197,21 @@
         <v>22</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="H13" s="21">
-        <v>8.1299999999999997E-2</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="I13" s="22">
         <f>C13*H13</f>
-        <v>8.1299999999999997E-2</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="J13" s="34"/>
     </row>
-    <row r="14" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
         <v>10</v>
       </c>
@@ -1225,21 +1225,21 @@
         <v>23</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H14" s="6">
-        <v>8.1299999999999997E-2</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="I14" s="7">
         <f>C14*H14</f>
-        <v>0.16259999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="J14" s="34"/>
     </row>
-    <row r="15" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="18">
         <v>11</v>
       </c>
@@ -1253,10 +1253,10 @@
         <v>25</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="H15" s="21">
         <v>0.60299999999999998</v>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="J15" s="34"/>
     </row>
-    <row r="16" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -1278,7 +1278,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="34"/>
     </row>
-    <row r="17" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="18">
         <v>12</v>
       </c>
@@ -1292,21 +1292,21 @@
         <v>27</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H17" s="21">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="I17" s="22">
-        <f>C17*H17</f>
+        <f t="shared" ref="I17:I22" si="1">C17*H17</f>
         <v>5.7999999999999996E-2</v>
       </c>
       <c r="J17" s="34"/>
     </row>
-    <row r="18" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
         <v>14</v>
       </c>
@@ -1317,24 +1317,24 @@
         <v>26</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H18" s="6">
-        <v>5.1000000000000004E-3</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="I18" s="7">
-        <f>C18*H18</f>
-        <v>1.5300000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.518</v>
       </c>
       <c r="J18" s="34"/>
     </row>
-    <row r="19" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="18">
         <v>15</v>
       </c>
@@ -1345,24 +1345,24 @@
         <v>26</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H19" s="21">
         <v>1.34E-2</v>
       </c>
       <c r="I19" s="22">
-        <f>C19*H19</f>
+        <f t="shared" si="1"/>
         <v>2.6800000000000001E-2</v>
       </c>
       <c r="J19" s="34"/>
     </row>
-    <row r="20" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="8">
         <v>16</v>
       </c>
@@ -1373,24 +1373,24 @@
         <v>26</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H20" s="6">
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="I20" s="7">
-        <f>C20*H20</f>
+        <f t="shared" si="1"/>
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="J20" s="34"/>
     </row>
-    <row r="21" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="18">
         <v>17</v>
       </c>
@@ -1401,24 +1401,24 @@
         <v>26</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H21" s="21">
         <v>1.29E-2</v>
       </c>
       <c r="I21" s="22">
-        <f>C21*H21</f>
+        <f t="shared" si="1"/>
         <v>1.29E-2</v>
       </c>
       <c r="J21" s="34"/>
     </row>
-    <row r="22" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="8">
         <v>18</v>
       </c>
@@ -1429,24 +1429,24 @@
         <v>26</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H22" s="6">
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="I22" s="7">
-        <f>C22*H22</f>
+        <f t="shared" si="1"/>
         <v>1.04E-2</v>
       </c>
       <c r="J22" s="34"/>
     </row>
-    <row r="23" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="D23" s="20"/>
@@ -1457,7 +1457,7 @@
       <c r="I23" s="22"/>
       <c r="J23" s="34"/>
     </row>
-    <row r="24" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="9">
         <v>19</v>
       </c>
@@ -1465,16 +1465,16 @@
         <v>2</v>
       </c>
       <c r="D24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="F24" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H24" s="29">
         <v>6.6E-3</v>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="J24" s="34"/>
     </row>
-    <row r="25" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="18">
         <v>20</v>
       </c>
@@ -1493,16 +1493,16 @@
         <v>7</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H25" s="21">
         <v>9.4899999999999998E-2</v>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="J25" s="34"/>
     </row>
-    <row r="26" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
         <v>21</v>
       </c>
@@ -1521,27 +1521,27 @@
         <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H26" s="6">
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" ref="I26:I27" si="1">C26*H26</f>
+        <f t="shared" ref="I26:I27" si="2">C26*H26</f>
         <v>8.8400000000000006E-2</v>
       </c>
       <c r="J26" s="34"/>
     </row>
-    <row r="27" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="18">
         <v>22</v>
       </c>
@@ -1549,27 +1549,27 @@
         <v>4</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H27" s="21">
         <v>0.33800000000000002</v>
       </c>
       <c r="I27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3520000000000001</v>
       </c>
       <c r="J27" s="34"/>
     </row>
-    <row r="28" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="8"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
@@ -1580,7 +1580,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="34"/>
     </row>
-    <row r="29" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="20"/>
@@ -1591,7 +1591,7 @@
       <c r="I29" s="22"/>
       <c r="J29" s="34"/>
     </row>
-    <row r="30" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
@@ -1602,7 +1602,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="34"/>
     </row>
-    <row r="31" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="20"/>
@@ -1613,7 +1613,7 @@
       <c r="I31" s="22"/>
       <c r="J31" s="34"/>
     </row>
-    <row r="32" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
@@ -1624,7 +1624,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="34"/>
     </row>
-    <row r="33" spans="2:10" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
       <c r="C33" s="24"/>
       <c r="D33" s="25"/>
@@ -1644,7 +1644,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G4 G16:G17 G13:G15 G11:G12 G6:G8 G24 G18:G19 G25:G27 G22:G23 G20:G21" numberStoredAsText="1"/>
+    <ignoredError sqref="G4 G16:G17 G11:G12 G6:G8 G24 G18:G19 G25:G27 G22:G23 G20:G21 G13:G14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>